--- a/tests/Feature/config/crypto_zero.xlsx
+++ b/tests/Feature/config/crypto_zero.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>private</t>
   </si>
@@ -112,7 +112,7 @@
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl kostnader)</t>
+    <t>Finans kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -151,13 +151,10 @@
     <t>Coinbase private</t>
   </si>
   <si>
-    <t xml:space="preserve">000 Asset rule </t>
+    <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t>00 Asset rule Using current amount: 5000 * 1</t>
-  </si>
-  <si>
-    <t>000 Asset rule Using current amount: 5000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1500000 * 1</t>
   </si>
   <si>
     <t>total</t>
@@ -582,7 +579,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -810,17 +807,17 @@
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD6">
         <v>0.0</v>
@@ -886,17 +883,17 @@
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD7">
         <v>0.0</v>
@@ -962,17 +959,17 @@
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8">
         <v>0.0</v>
@@ -1038,17 +1035,17 @@
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD9">
         <v>0.0</v>
@@ -1114,17 +1111,17 @@
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10">
         <v>0.0</v>
@@ -1190,17 +1187,17 @@
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD11">
         <v>0.0</v>
@@ -1266,17 +1263,17 @@
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12">
         <v>0.0</v>
@@ -1342,17 +1339,17 @@
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD13">
         <v>0.0</v>
@@ -1418,17 +1415,17 @@
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14">
         <v>0.0</v>
@@ -1494,17 +1491,17 @@
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
         <v>0.0</v>
@@ -1570,17 +1567,17 @@
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16">
         <v>0.0</v>
@@ -1646,17 +1643,17 @@
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17">
         <v>0.0</v>
@@ -1722,17 +1719,17 @@
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18">
         <v>0.0</v>
@@ -1798,17 +1795,17 @@
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19">
         <v>0.0</v>
@@ -1874,17 +1871,17 @@
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD20">
         <v>0.0</v>
@@ -1950,17 +1947,17 @@
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21">
         <v>0.0</v>
@@ -2026,17 +2023,17 @@
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22">
         <v>0.0</v>
@@ -2102,17 +2099,17 @@
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23">
         <v>0.0</v>
@@ -2178,17 +2175,17 @@
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24">
         <v>0.0</v>
@@ -2254,17 +2251,17 @@
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD25">
         <v>0.0</v>
@@ -2330,17 +2327,17 @@
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD26">
         <v>0.0</v>
@@ -2406,17 +2403,17 @@
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD27">
         <v>0.0</v>
@@ -2482,17 +2479,17 @@
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD28">
         <v>0.0</v>
@@ -2558,17 +2555,17 @@
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD29">
         <v>0.0</v>
@@ -2634,17 +2631,17 @@
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD30">
         <v>0.0</v>
@@ -2710,17 +2707,17 @@
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD31">
         <v>0.0</v>
@@ -2786,17 +2783,17 @@
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD32">
         <v>0.0</v>
@@ -2862,17 +2859,17 @@
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD33">
         <v>0.0</v>
@@ -2938,17 +2935,17 @@
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD34">
         <v>0.0</v>
@@ -3014,17 +3011,17 @@
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD35">
         <v>0.0</v>
@@ -3090,17 +3087,17 @@
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD36">
         <v>0.0</v>
@@ -3145,20 +3142,20 @@
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S37" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U37" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
@@ -3166,17 +3163,17 @@
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD37">
         <v>0.0</v>
@@ -3224,20 +3221,20 @@
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S38" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="1">
@@ -3245,17 +3242,17 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD38">
         <v>0.0</v>
@@ -3303,20 +3300,20 @@
       </c>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="8">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S39" s="8">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T39" s="8">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U39" s="8">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V39" s="9"/>
       <c r="W39" s="8">
@@ -3324,17 +3321,17 @@
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD39" s="7">
         <v>0.0</v>
@@ -3382,20 +3379,20 @@
       </c>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S40" s="11">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U40" s="11">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
@@ -3403,17 +3400,17 @@
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD40" s="10">
         <v>0.0</v>
@@ -3461,20 +3458,20 @@
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S41" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U41" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="1">
@@ -3482,17 +3479,17 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD41">
         <v>0.0</v>
@@ -3540,20 +3537,20 @@
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S42" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U42" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="1">
@@ -3561,17 +3558,17 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD42">
         <v>0.0</v>
@@ -3619,20 +3616,20 @@
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S43" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U43" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="1">
@@ -3640,17 +3637,17 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD43">
         <v>0.0</v>
@@ -3698,20 +3695,20 @@
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S44" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U44" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="1">
@@ -3719,17 +3716,17 @@
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD44">
         <v>0.0</v>
@@ -3777,20 +3774,20 @@
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S45" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U45" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="1">
@@ -3798,17 +3795,17 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD45">
         <v>0.0</v>
@@ -3856,20 +3853,20 @@
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S46" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U46" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="1">
@@ -3877,17 +3874,17 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD46">
         <v>0.0</v>
@@ -3935,20 +3932,20 @@
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S47" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U47" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="1">
@@ -3956,17 +3953,17 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD47">
         <v>0.0</v>
@@ -4014,20 +4011,20 @@
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S48" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U48" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="1">
@@ -4035,17 +4032,17 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD48">
         <v>0.0</v>
@@ -4093,20 +4090,20 @@
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S49" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U49" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="1">
@@ -4114,17 +4111,17 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD49">
         <v>0.0</v>
@@ -4172,20 +4169,20 @@
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S50" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U50" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="1">
@@ -4193,17 +4190,17 @@
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD50">
         <v>0.0</v>
@@ -4251,20 +4248,20 @@
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S51" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U51" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="1">
@@ -4272,17 +4269,17 @@
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD51">
         <v>0.0</v>
@@ -4330,20 +4327,20 @@
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S52" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U52" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="1">
@@ -4351,17 +4348,17 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD52">
         <v>0.0</v>
@@ -4409,20 +4406,20 @@
       </c>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S53" s="13">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U53" s="13">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="13">
@@ -4430,17 +4427,17 @@
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0.0</v>
@@ -4488,20 +4485,20 @@
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S54" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U54" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="1">
@@ -4509,17 +4506,17 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD54">
         <v>0.0</v>
@@ -4567,20 +4564,20 @@
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S55" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U55" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="1">
@@ -4588,17 +4585,17 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD55">
         <v>0.0</v>
@@ -4646,20 +4643,20 @@
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S56" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="1">
@@ -4667,17 +4664,17 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD56">
         <v>0.0</v>
@@ -4725,20 +4722,20 @@
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S57" s="13">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U57" s="13">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V57" s="14"/>
       <c r="W57" s="13">
@@ -4746,17 +4743,17 @@
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0.0</v>
@@ -4804,20 +4801,20 @@
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S58" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U58" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
@@ -4825,17 +4822,17 @@
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD58">
         <v>0.0</v>
@@ -4883,20 +4880,20 @@
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S59" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U59" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
@@ -4904,17 +4901,17 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD59">
         <v>0.0</v>
@@ -4962,20 +4959,20 @@
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S60" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
@@ -4983,17 +4980,17 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD60">
         <v>0.0</v>
@@ -5041,20 +5038,20 @@
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S61" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U61" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
@@ -5062,17 +5059,17 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD61">
         <v>0.0</v>
@@ -5120,20 +5117,20 @@
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S62" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U62" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="1">
@@ -5141,17 +5138,17 @@
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD62">
         <v>0.0</v>
@@ -5199,20 +5196,20 @@
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S63" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U63" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="1">
@@ -5220,17 +5217,17 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD63">
         <v>0.0</v>
@@ -5278,20 +5275,20 @@
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S64" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="1">
@@ -5299,17 +5296,17 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD64">
         <v>0.0</v>
@@ -5357,20 +5354,20 @@
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S65" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U65" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="1">
@@ -5378,17 +5375,17 @@
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD65">
         <v>0.0</v>
@@ -5436,20 +5433,20 @@
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S66" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U66" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="1">
@@ -5457,17 +5454,17 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD66">
         <v>0.0</v>
@@ -5515,20 +5512,20 @@
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S67" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U67" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="1">
@@ -5536,17 +5533,17 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD67">
         <v>0.0</v>
@@ -5594,20 +5591,20 @@
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S68" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="1">
@@ -5615,17 +5612,17 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD68">
         <v>0.0</v>
@@ -5673,20 +5670,20 @@
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S69" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U69" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="1">
@@ -5694,17 +5691,17 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD69">
         <v>0.0</v>
@@ -5752,20 +5749,20 @@
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S70" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U70" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
@@ -5773,17 +5770,17 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD70">
         <v>0.0</v>
@@ -5831,20 +5828,20 @@
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S71" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U71" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="1">
@@ -5852,17 +5849,17 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD71">
         <v>0.0</v>
@@ -5910,20 +5907,20 @@
       </c>
       <c r="O72" s="16"/>
       <c r="P72" s="5">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S72" s="5">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T72" s="5">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U72" s="5">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V72" s="16"/>
       <c r="W72" s="5">
@@ -5931,17 +5928,17 @@
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0.0</v>
@@ -6240,7 +6237,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -6458,21 +6455,21 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD6">
         <v>0.0</v>
@@ -6526,21 +6523,21 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD7">
         <v>0.0</v>
@@ -6594,21 +6591,21 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8">
         <v>0.0</v>
@@ -6662,21 +6659,21 @@
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD9">
         <v>0.0</v>
@@ -6730,21 +6727,21 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10">
         <v>0.0</v>
@@ -6798,21 +6795,21 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD11">
         <v>0.0</v>
@@ -6866,21 +6863,21 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12">
         <v>0.0</v>
@@ -6934,21 +6931,21 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD13">
         <v>0.0</v>
@@ -7002,21 +6999,21 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14">
         <v>0.0</v>
@@ -7070,21 +7067,21 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
         <v>0.0</v>
@@ -7138,21 +7135,21 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16">
         <v>0.0</v>
@@ -7206,21 +7203,21 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17">
         <v>0.0</v>
@@ -7274,21 +7271,21 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18">
         <v>0.0</v>
@@ -7342,21 +7339,21 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19">
         <v>0.0</v>
@@ -7410,21 +7407,21 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD20">
         <v>0.0</v>
@@ -7478,21 +7475,21 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21">
         <v>0.0</v>
@@ -7546,21 +7543,21 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22">
         <v>0.0</v>
@@ -7614,21 +7611,21 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23">
         <v>0.0</v>
@@ -7682,21 +7679,21 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24">
         <v>0.0</v>
@@ -7750,21 +7747,21 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD25">
         <v>0.0</v>
@@ -7818,21 +7815,21 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD26">
         <v>0.0</v>
@@ -7886,21 +7883,21 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD27">
         <v>0.0</v>
@@ -7954,21 +7951,21 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD28">
         <v>0.0</v>
@@ -8022,21 +8019,21 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD29">
         <v>0.0</v>
@@ -8090,21 +8087,21 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD30">
         <v>0.0</v>
@@ -8158,21 +8155,21 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD31">
         <v>0.0</v>
@@ -8226,21 +8223,21 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD32">
         <v>0.0</v>
@@ -8294,21 +8291,21 @@
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD33">
         <v>0.0</v>
@@ -8362,21 +8359,21 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD34">
         <v>0.0</v>
@@ -8430,21 +8427,21 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD35">
         <v>0.0</v>
@@ -8498,21 +8495,21 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD36">
         <v>0.0</v>
@@ -8549,42 +8546,42 @@
       <c r="N37" s="1"/>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S37" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U37" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V37" s="2">
         <v>0.8</v>
       </c>
       <c r="W37" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="2">
         <v>0.01</v>
       </c>
       <c r="Y37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD37">
         <v>0.0</v>
@@ -8621,49 +8618,49 @@
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S38" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V38" s="2">
         <v>0.8</v>
       </c>
       <c r="W38" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X38" s="2">
         <v>0.01</v>
       </c>
       <c r="Y38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD38">
         <v>0.0</v>
       </c>
       <c r="AE38"/>
       <c r="AG38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -8693,42 +8690,42 @@
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="8">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S39" s="8">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T39" s="8">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U39" s="8">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V39" s="9">
         <v>0.8</v>
       </c>
       <c r="W39" s="8">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="9">
         <v>0.01</v>
       </c>
       <c r="Y39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD39" s="7">
         <v>0.0</v>
@@ -8736,7 +8733,7 @@
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
       <c r="AG39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -8766,42 +8763,42 @@
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S40" s="11">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U40" s="11">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V40" s="12">
         <v>0.8</v>
       </c>
       <c r="W40" s="11">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X40" s="12">
         <v>0.01</v>
       </c>
       <c r="Y40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD40" s="10">
         <v>0.0</v>
@@ -8809,7 +8806,7 @@
       <c r="AE40" s="10"/>
       <c r="AF40" s="10"/>
       <c r="AG40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -8839,49 +8836,49 @@
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S41" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U41" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V41" s="2">
         <v>0.8</v>
       </c>
       <c r="W41" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X41" s="2">
         <v>0.01</v>
       </c>
       <c r="Y41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD41">
         <v>0.0</v>
       </c>
       <c r="AE41"/>
       <c r="AG41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -8911,49 +8908,49 @@
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S42" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U42" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V42" s="2">
         <v>0.8</v>
       </c>
       <c r="W42" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X42" s="2">
         <v>0.01</v>
       </c>
       <c r="Y42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD42">
         <v>0.0</v>
       </c>
       <c r="AE42"/>
       <c r="AG42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:33">
@@ -8983,49 +8980,49 @@
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S43" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U43" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V43" s="2">
         <v>0.8</v>
       </c>
       <c r="W43" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X43" s="2">
         <v>0.01</v>
       </c>
       <c r="Y43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD43">
         <v>0.0</v>
       </c>
       <c r="AE43"/>
       <c r="AG43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -9055,49 +9052,49 @@
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S44" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U44" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V44" s="2">
         <v>0.8</v>
       </c>
       <c r="W44" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X44" s="2">
         <v>0.01</v>
       </c>
       <c r="Y44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD44">
         <v>0.0</v>
       </c>
       <c r="AE44"/>
       <c r="AG44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:33">
@@ -9127,49 +9124,49 @@
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S45" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U45" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V45" s="2">
         <v>0.8</v>
       </c>
       <c r="W45" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2">
         <v>0.01</v>
       </c>
       <c r="Y45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD45">
         <v>0.0</v>
       </c>
       <c r="AE45"/>
       <c r="AG45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:33">
@@ -9199,49 +9196,49 @@
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S46" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U46" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V46" s="2">
         <v>0.8</v>
       </c>
       <c r="W46" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X46" s="2">
         <v>0.01</v>
       </c>
       <c r="Y46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD46">
         <v>0.0</v>
       </c>
       <c r="AE46"/>
       <c r="AG46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -9271,49 +9268,49 @@
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S47" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U47" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V47" s="2">
         <v>0.8</v>
       </c>
       <c r="W47" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2">
         <v>0.01</v>
       </c>
       <c r="Y47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD47">
         <v>0.0</v>
       </c>
       <c r="AE47"/>
       <c r="AG47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:33">
@@ -9343,49 +9340,49 @@
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S48" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U48" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V48" s="2">
         <v>0.8</v>
       </c>
       <c r="W48" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X48" s="2">
         <v>0.01</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD48">
         <v>0.0</v>
       </c>
       <c r="AE48"/>
       <c r="AG48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:33">
@@ -9415,49 +9412,49 @@
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S49" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U49" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V49" s="2">
         <v>0.8</v>
       </c>
       <c r="W49" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X49" s="2">
         <v>0.01</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD49">
         <v>0.0</v>
       </c>
       <c r="AE49"/>
       <c r="AG49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -9487,49 +9484,49 @@
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S50" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U50" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V50" s="2">
         <v>0.8</v>
       </c>
       <c r="W50" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2">
         <v>0.01</v>
       </c>
       <c r="Y50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD50">
         <v>0.0</v>
       </c>
       <c r="AE50"/>
       <c r="AG50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:33">
@@ -9559,49 +9556,49 @@
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S51" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U51" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V51" s="2">
         <v>0.8</v>
       </c>
       <c r="W51" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X51" s="2">
         <v>0.01</v>
       </c>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD51">
         <v>0.0</v>
       </c>
       <c r="AE51"/>
       <c r="AG51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -9631,49 +9628,49 @@
       <c r="N52" s="1"/>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S52" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U52" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V52" s="2">
         <v>0.8</v>
       </c>
       <c r="W52" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X52" s="2">
         <v>0.01</v>
       </c>
       <c r="Y52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD52">
         <v>0.0</v>
       </c>
       <c r="AE52"/>
       <c r="AG52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:33">
@@ -9703,42 +9700,42 @@
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S53" s="13">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U53" s="13">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V53" s="14">
         <v>0.8</v>
       </c>
       <c r="W53" s="13">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X53" s="14">
         <v>0.01</v>
       </c>
       <c r="Y53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0.0</v>
@@ -9746,7 +9743,7 @@
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
       <c r="AG53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:33">
@@ -9776,49 +9773,49 @@
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S54" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U54" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V54" s="2">
         <v>0.8</v>
       </c>
       <c r="W54" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X54" s="2">
         <v>0.01</v>
       </c>
       <c r="Y54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD54">
         <v>0.0</v>
       </c>
       <c r="AE54"/>
       <c r="AG54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:33">
@@ -9848,49 +9845,49 @@
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S55" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U55" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V55" s="2">
         <v>0.8</v>
       </c>
       <c r="W55" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X55" s="2">
         <v>0.01</v>
       </c>
       <c r="Y55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD55">
         <v>0.0</v>
       </c>
       <c r="AE55"/>
       <c r="AG55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:33">
@@ -9920,49 +9917,49 @@
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S56" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V56" s="2">
         <v>0.8</v>
       </c>
       <c r="W56" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X56" s="2">
         <v>0.01</v>
       </c>
       <c r="Y56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD56">
         <v>0.0</v>
       </c>
       <c r="AE56"/>
       <c r="AG56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:33">
@@ -9992,42 +9989,42 @@
       <c r="N57" s="13"/>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S57" s="13">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U57" s="13">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V57" s="14">
         <v>0.8</v>
       </c>
       <c r="W57" s="13">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X57" s="14">
         <v>0.01</v>
       </c>
       <c r="Y57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0.0</v>
@@ -10035,7 +10032,7 @@
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
       <c r="AG57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:33">
@@ -10065,49 +10062,49 @@
       <c r="N58" s="1"/>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S58" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U58" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V58" s="2">
         <v>0.8</v>
       </c>
       <c r="W58" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X58" s="2">
         <v>0.01</v>
       </c>
       <c r="Y58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD58">
         <v>0.0</v>
       </c>
       <c r="AE58"/>
       <c r="AG58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -10137,49 +10134,49 @@
       <c r="N59" s="1"/>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S59" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U59" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V59" s="2">
         <v>0.8</v>
       </c>
       <c r="W59" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X59" s="2">
         <v>0.01</v>
       </c>
       <c r="Y59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD59">
         <v>0.0</v>
       </c>
       <c r="AE59"/>
       <c r="AG59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:33">
@@ -10209,49 +10206,49 @@
       <c r="N60" s="1"/>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S60" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V60" s="2">
         <v>0.8</v>
       </c>
       <c r="W60" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X60" s="2">
         <v>0.01</v>
       </c>
       <c r="Y60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD60">
         <v>0.0</v>
       </c>
       <c r="AE60"/>
       <c r="AG60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:33">
@@ -10281,49 +10278,49 @@
       <c r="N61" s="1"/>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S61" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U61" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V61" s="2">
         <v>0.8</v>
       </c>
       <c r="W61" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X61" s="2">
         <v>0.01</v>
       </c>
       <c r="Y61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD61">
         <v>0.0</v>
       </c>
       <c r="AE61"/>
       <c r="AG61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:33">
@@ -10353,49 +10350,49 @@
       <c r="N62" s="1"/>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S62" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U62" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V62" s="2">
         <v>0.8</v>
       </c>
       <c r="W62" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X62" s="2">
         <v>0.01</v>
       </c>
       <c r="Y62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD62">
         <v>0.0</v>
       </c>
       <c r="AE62"/>
       <c r="AG62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:33">
@@ -10425,49 +10422,49 @@
       <c r="N63" s="1"/>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S63" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U63" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V63" s="2">
         <v>0.8</v>
       </c>
       <c r="W63" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X63" s="2">
         <v>0.01</v>
       </c>
       <c r="Y63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD63">
         <v>0.0</v>
       </c>
       <c r="AE63"/>
       <c r="AG63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -10497,49 +10494,49 @@
       <c r="N64" s="1"/>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S64" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V64" s="2">
         <v>0.8</v>
       </c>
       <c r="W64" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X64" s="2">
         <v>0.01</v>
       </c>
       <c r="Y64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD64">
         <v>0.0</v>
       </c>
       <c r="AE64"/>
       <c r="AG64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:33">
@@ -10569,49 +10566,49 @@
       <c r="N65" s="1"/>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S65" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U65" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V65" s="2">
         <v>0.8</v>
       </c>
       <c r="W65" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X65" s="2">
         <v>0.01</v>
       </c>
       <c r="Y65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD65">
         <v>0.0</v>
       </c>
       <c r="AE65"/>
       <c r="AG65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:33">
@@ -10641,49 +10638,49 @@
       <c r="N66" s="1"/>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S66" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U66" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V66" s="2">
         <v>0.8</v>
       </c>
       <c r="W66" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X66" s="2">
         <v>0.01</v>
       </c>
       <c r="Y66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD66">
         <v>0.0</v>
       </c>
       <c r="AE66"/>
       <c r="AG66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:33">
@@ -10713,49 +10710,49 @@
       <c r="N67" s="1"/>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S67" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U67" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V67" s="2">
         <v>0.8</v>
       </c>
       <c r="W67" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X67" s="2">
         <v>0.01</v>
       </c>
       <c r="Y67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD67">
         <v>0.0</v>
       </c>
       <c r="AE67"/>
       <c r="AG67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -10785,49 +10782,49 @@
       <c r="N68" s="1"/>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S68" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V68" s="2">
         <v>0.8</v>
       </c>
       <c r="W68" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X68" s="2">
         <v>0.01</v>
       </c>
       <c r="Y68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD68">
         <v>0.0</v>
       </c>
       <c r="AE68"/>
       <c r="AG68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:33">
@@ -10857,49 +10854,49 @@
       <c r="N69" s="1"/>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S69" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U69" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V69" s="2">
         <v>0.8</v>
       </c>
       <c r="W69" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X69" s="2">
         <v>0.01</v>
       </c>
       <c r="Y69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD69">
         <v>0.0</v>
       </c>
       <c r="AE69"/>
       <c r="AG69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:33">
@@ -10929,49 +10926,49 @@
       <c r="N70" s="1"/>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S70" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U70" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V70" s="2">
         <v>0.8</v>
       </c>
       <c r="W70" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X70" s="2">
         <v>0.01</v>
       </c>
       <c r="Y70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD70">
         <v>0.0</v>
       </c>
       <c r="AE70"/>
       <c r="AG70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:33">
@@ -11001,49 +10998,49 @@
       <c r="N71" s="1"/>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S71" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U71" s="6">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V71" s="2">
         <v>0.8</v>
       </c>
       <c r="W71" s="1">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X71" s="2">
         <v>0.01</v>
       </c>
       <c r="Y71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD71">
         <v>0.0</v>
       </c>
       <c r="AE71"/>
       <c r="AG71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:33">
@@ -11073,42 +11070,42 @@
       <c r="N72" s="5"/>
       <c r="O72" s="16"/>
       <c r="P72" s="5">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="S72" s="5">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="T72" s="5">
-        <v>5000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U72" s="5">
-        <v>4000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="V72" s="16">
         <v>0.8</v>
       </c>
       <c r="W72" s="5">
-        <v>40.0</v>
+        <v>0</v>
       </c>
       <c r="X72" s="16">
         <v>0.01</v>
       </c>
       <c r="Y72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0.0</v>
@@ -11116,7 +11113,7 @@
       <c r="AE72" s="15"/>
       <c r="AF72" s="15"/>
       <c r="AG72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:33">
@@ -11393,7 +11390,7 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
